--- a/Build1/Documents/Databse-Prototype.xlsx
+++ b/Build1/Documents/Databse-Prototype.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -183,8 +183,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,16 +223,21 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -311,6 +316,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -345,6 +351,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,14 +527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -535,12 +542,12 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -560,17 +567,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -593,7 +600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -601,18 +608,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -632,12 +639,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -666,7 +673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -677,7 +684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -713,26 +720,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:14">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="3:14">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:14">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>19</v>
       </c>
@@ -740,7 +747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:14">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -748,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:14">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -756,7 +763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:14">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>24</v>
       </c>
@@ -767,7 +774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="3:14">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>25</v>
       </c>
@@ -778,7 +785,7 @@
         <v>20045</v>
       </c>
     </row>
-    <row r="10" spans="3:14">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>26</v>
       </c>
@@ -792,17 +799,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:14">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="3:14">
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="3:14">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -813,7 +820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:14">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>46</v>
       </c>
@@ -824,7 +831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>41</v>
       </c>
@@ -835,7 +842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>47</v>
       </c>
@@ -846,17 +853,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="3:7">
-      <c r="E21" s="2" t="s">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>49</v>
       </c>
@@ -867,12 +874,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Build1/Documents/Databse-Prototype.xlsx
+++ b/Build1/Documents/Databse-Prototype.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -530,16 +530,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -723,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/Build1/Documents/Databse-Prototype.xlsx
+++ b/Build1/Documents/Databse-Prototype.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>Clients</t>
   </si>
@@ -178,6 +178,39 @@
   </si>
   <si>
     <t>datetime</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>TicketId</t>
+  </si>
+  <si>
+    <t>ModuleId</t>
+  </si>
+  <si>
+    <t>Guid</t>
+  </si>
+  <si>
+    <t>BigInt</t>
+  </si>
+  <si>
+    <t>Identity (1,1)</t>
+  </si>
+  <si>
+    <t>TicketNo</t>
+  </si>
+  <si>
+    <t>numeric(10,0)</t>
+  </si>
+  <si>
+    <t>varchar(2000)</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
   </si>
 </sst>
 </file>
@@ -528,20 +561,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -648,7 +681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -676,8 +709,11 @@
       <c r="I17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -688,7 +724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -712,6 +748,70 @@
       </c>
       <c r="I19" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
